--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT063-001 - Setup Periode Harian  - Ubah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT063-001 - Setup Periode Harian  - Ubah Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525ED182-335A-4FFA-BB43-910C0D3C2773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384B73A7-F5CB-492E-8605-16AC4A4BA8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,10 +114,10 @@
     <t>PERIODE_HARIAN</t>
   </si>
   <si>
-    <t>05/05/2023</t>
-  </si>
-  <si>
     <t>750</t>
+  </si>
+  <si>
+    <t>07/09/2024</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -216,6 +216,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,7 +529,7 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,21 +661,22 @@
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="P2" s="9" t="str">
         <f>RIGHT(O2,4) &amp; MID(O2,4,2) &amp; LEFT(O2,2)</f>
-        <v>20230505</v>
+        <v>20240907</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="9"/>
-      <c r="S2" s="7">
-        <v>20230505</v>
+      <c r="S2" s="11" t="str">
+        <f>P2</f>
+        <v>20240907</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="6"/>
